--- a/follow_up_project/Tstart_Tend_vals.xlsx
+++ b/follow_up_project/Tstart_Tend_vals.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DE2D9A-B4D9-41CE-8930-266D17625680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2955" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>T10_start</t>
   </si>
@@ -71,12 +72,30 @@
   </si>
   <si>
     <t>HS2011/LU10%</t>
+  </si>
+  <si>
+    <t>Hs2012</t>
+  </si>
+  <si>
+    <t>Haggle</t>
+  </si>
+  <si>
+    <t>start 10%</t>
+  </si>
+  <si>
+    <t>Hs2013</t>
+  </si>
+  <si>
+    <t>Hs2011</t>
+  </si>
+  <si>
+    <t>MIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +147,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -201,6 +220,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,9 +272,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,6 +760,52 @@
         <v>1174</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
